--- a/Item/Line_Transient/Line_Transient_Parameter.xlsx
+++ b/Item/Line_Transient/Line_Transient_Parameter.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gittest\DS_Platform\Project\_Standard_Sample\Item\Line_Transient\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Test_Parameters (2)" sheetId="12" r:id="rId2"/>
     <sheet name="Scope" sheetId="11" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="95">
   <si>
     <t>Scale</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,7 +405,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -598,7 +603,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,9 +667,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -701,13 +703,13 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -983,7 +985,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -991,13 +993,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1010,83 +1012,34 @@
     <col min="7" max="7" width="14.375" style="19" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.75" style="19" customWidth="1"/>
     <col min="9" max="10" width="7.125" style="19" customWidth="1"/>
-    <col min="11" max="12" width="12" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.875" style="19" customWidth="1"/>
-    <col min="18" max="18" width="12" style="19" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" style="19" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.875" style="19" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.25" style="19" customWidth="1"/>
-    <col min="23" max="23" width="0.875" style="19" customWidth="1"/>
-    <col min="24" max="24" width="9" style="19" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="19"/>
+    <col min="11" max="11" width="12" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="0.875" style="19" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="X2" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z2" s="29"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="I3" s="33" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="I3" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="27" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="U3" s="30"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z3" s="19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -1120,56 +1073,14 @@
       <c r="K4" s="11">
         <v>0</v>
       </c>
-      <c r="L4" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="M4" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q4" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="R4" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="U4" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="W4" s="19"/>
-      <c r="X4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z4" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>1</v>
       </c>
@@ -1188,44 +1099,11 @@
       <c r="J6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="M6" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="P6" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="R6" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="S6" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="T6" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="U6" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="V6" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="15">
         <v>90</v>
       </c>
@@ -1257,59 +1135,12 @@
       <c r="K7" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="L7" s="15">
-        <v>11.6</v>
-      </c>
-      <c r="M7" s="15">
-        <v>12.4</v>
-      </c>
-      <c r="N7" s="15">
-        <v>11.4</v>
-      </c>
-      <c r="O7" s="15">
-        <v>12.6</v>
-      </c>
-      <c r="P7" s="15">
-        <v>11.4</v>
-      </c>
-      <c r="Q7" s="15">
-        <v>12.6</v>
-      </c>
-      <c r="R7" s="15">
-        <v>11.4</v>
-      </c>
-      <c r="S7" s="15">
-        <v>12.6</v>
-      </c>
-      <c r="T7" s="15">
-        <v>2.4</v>
-      </c>
-      <c r="U7" s="15">
-        <v>3.65</v>
-      </c>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="19">
-        <v>0.04</v>
-      </c>
-      <c r="Y7" s="19">
-        <v>100</v>
-      </c>
-      <c r="Z7" s="19">
-        <v>0</v>
-      </c>
+      <c r="L7" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="Y2:Z2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
+  <mergeCells count="3">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="I3:J3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1336,87 +1167,87 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.75" style="23" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="23" customWidth="1"/>
-    <col min="9" max="10" width="7.125" style="23" customWidth="1"/>
-    <col min="11" max="12" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.875" style="23" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.875" style="23" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.875" style="23" customWidth="1"/>
-    <col min="18" max="18" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.875" style="23" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" style="23" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.875" style="23" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.25" style="23" customWidth="1"/>
-    <col min="23" max="23" width="0.875" style="23" customWidth="1"/>
-    <col min="24" max="24" width="9" style="23" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="10.625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="22" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="22" customWidth="1"/>
+    <col min="9" max="10" width="7.125" style="22" customWidth="1"/>
+    <col min="11" max="12" width="12" style="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.875" style="22" customWidth="1"/>
+    <col min="18" max="18" width="12" style="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" style="22" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.875" style="22" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.25" style="22" customWidth="1"/>
+    <col min="23" max="23" width="0.875" style="22" customWidth="1"/>
+    <col min="24" max="24" width="9" style="22" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="28" t="s">
+      <c r="X1" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
+      <c r="Y1" s="27"/>
+      <c r="Z1" s="27"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
+      <c r="A2" s="30"/>
       <c r="X2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Y2" s="29" t="s">
+      <c r="Y2" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="Z2" s="29"/>
+      <c r="Z2" s="28"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="32"/>
-      <c r="I3" s="33" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="I3" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="33"/>
-      <c r="K3" s="27" t="s">
+      <c r="J3" s="32"/>
+      <c r="K3" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30" t="s">
+      <c r="M3" s="29"/>
+      <c r="N3" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30" t="s">
+      <c r="O3" s="29"/>
+      <c r="P3" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30" t="s">
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30" t="s">
+      <c r="S3" s="29"/>
+      <c r="T3" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="U3" s="30"/>
+      <c r="U3" s="29"/>
       <c r="X3" s="9"/>
-      <c r="Y3" s="23" t="s">
+      <c r="Y3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="Z3" s="23" t="s">
+      <c r="Z3" s="22" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1424,10 +1255,10 @@
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="16" t="s">
@@ -1442,52 +1273,52 @@
       <c r="G4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="27">
-        <v>0</v>
-      </c>
-      <c r="J4" s="27">
-        <v>1</v>
-      </c>
-      <c r="K4" s="27">
-        <v>0</v>
-      </c>
-      <c r="L4" s="24" t="s">
+      <c r="I4" s="26">
+        <v>0</v>
+      </c>
+      <c r="J4" s="26">
+        <v>1</v>
+      </c>
+      <c r="K4" s="26">
+        <v>0</v>
+      </c>
+      <c r="L4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="24" t="s">
+      <c r="Q4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="S4" s="24" t="s">
+      <c r="S4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="24" t="s">
+      <c r="T4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="24" t="s">
+      <c r="U4" s="23" t="s">
         <v>45</v>
       </c>
       <c r="V4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="23"/>
+      <c r="W4" s="22"/>
       <c r="X4" s="13" t="s">
         <v>0</v>
       </c>
@@ -1499,63 +1330,63 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="23" t="s">
+      <c r="A6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="23" t="s">
+      <c r="L6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="P6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="Q6" s="23" t="s">
+      <c r="Q6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="R6" s="23" t="s">
+      <c r="R6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="23" t="s">
+      <c r="S6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="T6" s="23" t="s">
+      <c r="T6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="U6" s="23" t="s">
+      <c r="U6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="V6" s="23" t="s">
+      <c r="V6" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1623,13 +1454,13 @@
       </c>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
-      <c r="X7" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y7" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z7" s="23">
+      <c r="X7" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y7" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z7" s="22">
         <v>0</v>
       </c>
     </row>
@@ -1697,13 +1528,13 @@
       </c>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
-      <c r="X8" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y8" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z8" s="23">
+      <c r="X8" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y8" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="22">
         <v>0</v>
       </c>
     </row>
@@ -1771,13 +1602,13 @@
       </c>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
-      <c r="X9" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y9" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z9" s="23">
+      <c r="X9" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y9" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z9" s="22">
         <v>0</v>
       </c>
     </row>
@@ -1845,13 +1676,13 @@
       </c>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
-      <c r="X10" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y10" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z10" s="23">
+      <c r="X10" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y10" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z10" s="22">
         <v>0</v>
       </c>
     </row>
@@ -1919,13 +1750,13 @@
       </c>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
-      <c r="X11" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y11" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z11" s="23">
+      <c r="X11" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y11" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z11" s="22">
         <v>0</v>
       </c>
     </row>
@@ -1993,13 +1824,13 @@
       </c>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
-      <c r="X12" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y12" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z12" s="23">
+      <c r="X12" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y12" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z12" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2067,13 +1898,13 @@
       </c>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
-      <c r="X13" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y13" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z13" s="23">
+      <c r="X13" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y13" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z13" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2141,13 +1972,13 @@
       </c>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
-      <c r="X14" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y14" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z14" s="23">
+      <c r="X14" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y14" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z14" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2215,13 +2046,13 @@
       </c>
       <c r="V15" s="15"/>
       <c r="W15" s="15"/>
-      <c r="X15" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y15" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z15" s="23">
+      <c r="X15" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y15" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z15" s="22">
         <v>0</v>
       </c>
     </row>
@@ -2289,18 +2120,18 @@
       </c>
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
-      <c r="X16" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y16" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z16" s="23">
+      <c r="X16" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y16" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z16" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="15">
         <v>100</v>
       </c>
@@ -2364,18 +2195,18 @@
       </c>
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
-      <c r="X17" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y17" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z17" s="23">
+      <c r="X17" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y17" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z17" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="15">
         <v>100</v>
       </c>
@@ -2439,18 +2270,18 @@
       </c>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
-      <c r="X18" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y18" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z18" s="23">
+      <c r="X18" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y18" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z18" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="15">
         <v>100</v>
       </c>
@@ -2514,18 +2345,18 @@
       </c>
       <c r="V19" s="15"/>
       <c r="W19" s="15"/>
-      <c r="X19" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y19" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z19" s="23">
+      <c r="X19" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y19" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z19" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="15">
         <v>100</v>
       </c>
@@ -2589,18 +2420,18 @@
       </c>
       <c r="V20" s="15"/>
       <c r="W20" s="15"/>
-      <c r="X20" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y20" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z20" s="23">
+      <c r="X20" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y20" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="15">
         <v>100</v>
       </c>
@@ -2664,18 +2495,18 @@
       </c>
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
-      <c r="X21" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y21" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z21" s="23">
+      <c r="X21" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y21" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z21" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="15">
         <v>100</v>
       </c>
@@ -2739,18 +2570,18 @@
       </c>
       <c r="V22" s="15"/>
       <c r="W22" s="15"/>
-      <c r="X22" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y22" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z22" s="23">
+      <c r="X22" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y22" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z22" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="15">
         <v>100</v>
       </c>
@@ -2814,18 +2645,18 @@
       </c>
       <c r="V23" s="15"/>
       <c r="W23" s="15"/>
-      <c r="X23" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y23" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z23" s="23">
+      <c r="X23" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y23" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z23" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="15">
         <v>100</v>
       </c>
@@ -2889,18 +2720,18 @@
       </c>
       <c r="V24" s="15"/>
       <c r="W24" s="15"/>
-      <c r="X24" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y24" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z24" s="23">
+      <c r="X24" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y24" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z24" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="15">
         <v>127</v>
       </c>
@@ -2964,18 +2795,18 @@
       </c>
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
-      <c r="X25" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y25" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z25" s="23">
+      <c r="X25" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y25" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z25" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="15">
         <v>127</v>
       </c>
@@ -3039,18 +2870,18 @@
       </c>
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
-      <c r="X26" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y26" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z26" s="23">
+      <c r="X26" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y26" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z26" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="15">
         <v>127</v>
       </c>
@@ -3114,18 +2945,18 @@
       </c>
       <c r="V27" s="15"/>
       <c r="W27" s="15"/>
-      <c r="X27" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y27" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z27" s="23">
+      <c r="X27" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y27" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z27" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A28" s="23"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="15">
         <v>127</v>
       </c>
@@ -3189,18 +3020,18 @@
       </c>
       <c r="V28" s="15"/>
       <c r="W28" s="15"/>
-      <c r="X28" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y28" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z28" s="23">
+      <c r="X28" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y28" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z28" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="15">
         <v>127</v>
       </c>
@@ -3264,18 +3095,18 @@
       </c>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
-      <c r="X29" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y29" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z29" s="23">
+      <c r="X29" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y29" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z29" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="15">
         <v>127</v>
       </c>
@@ -3339,18 +3170,18 @@
       </c>
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
-      <c r="X30" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y30" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z30" s="23">
+      <c r="X30" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y30" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z30" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="15">
         <v>127</v>
       </c>
@@ -3414,18 +3245,18 @@
       </c>
       <c r="V31" s="15"/>
       <c r="W31" s="15"/>
-      <c r="X31" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y31" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z31" s="23">
+      <c r="X31" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y31" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z31" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A32" s="23"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="15">
         <v>127</v>
       </c>
@@ -3489,17 +3320,17 @@
       </c>
       <c r="V32" s="15"/>
       <c r="W32" s="15"/>
-      <c r="X32" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y32" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z32" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X32" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y32" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z32" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="15">
         <v>127</v>
       </c>
@@ -3563,17 +3394,17 @@
       </c>
       <c r="V33" s="15"/>
       <c r="W33" s="15"/>
-      <c r="X33" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y33" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z33" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X33" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y33" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z33" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="15">
         <v>140</v>
       </c>
@@ -3637,17 +3468,17 @@
       </c>
       <c r="V34" s="15"/>
       <c r="W34" s="15"/>
-      <c r="X34" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y34" s="23">
+      <c r="X34" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y34" s="22">
         <v>200</v>
       </c>
-      <c r="Z34" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z34" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="15">
         <v>140</v>
       </c>
@@ -3711,17 +3542,17 @@
       </c>
       <c r="V35" s="15"/>
       <c r="W35" s="15"/>
-      <c r="X35" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y35" s="23">
+      <c r="X35" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y35" s="22">
         <v>200</v>
       </c>
-      <c r="Z35" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z35" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="15">
         <v>140</v>
       </c>
@@ -3785,17 +3616,17 @@
       </c>
       <c r="V36" s="15"/>
       <c r="W36" s="15"/>
-      <c r="X36" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y36" s="23">
+      <c r="X36" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y36" s="22">
         <v>200</v>
       </c>
-      <c r="Z36" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z36" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="15">
         <v>140</v>
       </c>
@@ -3859,17 +3690,17 @@
       </c>
       <c r="V37" s="15"/>
       <c r="W37" s="15"/>
-      <c r="X37" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y37" s="23">
+      <c r="X37" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y37" s="22">
         <v>200</v>
       </c>
-      <c r="Z37" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z37" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="15">
         <v>140</v>
       </c>
@@ -3933,17 +3764,17 @@
       </c>
       <c r="V38" s="15"/>
       <c r="W38" s="15"/>
-      <c r="X38" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y38" s="23">
+      <c r="X38" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y38" s="22">
         <v>200</v>
       </c>
-      <c r="Z38" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z38" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="15">
         <v>140</v>
       </c>
@@ -4007,17 +3838,17 @@
       </c>
       <c r="V39" s="15"/>
       <c r="W39" s="15"/>
-      <c r="X39" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y39" s="23">
+      <c r="X39" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y39" s="22">
         <v>200</v>
       </c>
-      <c r="Z39" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z39" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="15">
         <v>140</v>
       </c>
@@ -4081,17 +3912,17 @@
       </c>
       <c r="V40" s="15"/>
       <c r="W40" s="15"/>
-      <c r="X40" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y40" s="23">
+      <c r="X40" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y40" s="22">
         <v>200</v>
       </c>
-      <c r="Z40" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z40" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="15">
         <v>140</v>
       </c>
@@ -4155,17 +3986,17 @@
       </c>
       <c r="V41" s="15"/>
       <c r="W41" s="15"/>
-      <c r="X41" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y41" s="23">
+      <c r="X41" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y41" s="22">
         <v>200</v>
       </c>
-      <c r="Z41" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z41" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="15">
         <v>140</v>
       </c>
@@ -4229,17 +4060,17 @@
       </c>
       <c r="V42" s="15"/>
       <c r="W42" s="15"/>
-      <c r="X42" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y42" s="23">
+      <c r="X42" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y42" s="22">
         <v>200</v>
       </c>
-      <c r="Z42" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z42" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="15">
         <v>180</v>
       </c>
@@ -4303,17 +4134,17 @@
       </c>
       <c r="V43" s="15"/>
       <c r="W43" s="15"/>
-      <c r="X43" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y43" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z43" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X43" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y43" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z43" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="15">
         <v>180</v>
       </c>
@@ -4377,17 +4208,17 @@
       </c>
       <c r="V44" s="15"/>
       <c r="W44" s="15"/>
-      <c r="X44" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y44" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z44" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X44" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y44" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z44" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="15">
         <v>180</v>
       </c>
@@ -4451,17 +4282,17 @@
       </c>
       <c r="V45" s="15"/>
       <c r="W45" s="15"/>
-      <c r="X45" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y45" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z45" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X45" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y45" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="15">
         <v>180</v>
       </c>
@@ -4525,17 +4356,17 @@
       </c>
       <c r="V46" s="15"/>
       <c r="W46" s="15"/>
-      <c r="X46" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y46" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z46" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X46" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y46" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z46" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="15">
         <v>180</v>
       </c>
@@ -4599,17 +4430,17 @@
       </c>
       <c r="V47" s="15"/>
       <c r="W47" s="15"/>
-      <c r="X47" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y47" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z47" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X47" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y47" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z47" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="15">
         <v>180</v>
       </c>
@@ -4673,17 +4504,17 @@
       </c>
       <c r="V48" s="15"/>
       <c r="W48" s="15"/>
-      <c r="X48" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y48" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z48" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X48" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y48" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z48" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="15">
         <v>180</v>
       </c>
@@ -4747,17 +4578,17 @@
       </c>
       <c r="V49" s="15"/>
       <c r="W49" s="15"/>
-      <c r="X49" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y49" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z49" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X49" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y49" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z49" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="15">
         <v>180</v>
       </c>
@@ -4821,17 +4652,17 @@
       </c>
       <c r="V50" s="15"/>
       <c r="W50" s="15"/>
-      <c r="X50" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y50" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z50" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X50" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y50" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z50" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="15">
         <v>180</v>
       </c>
@@ -4895,17 +4726,17 @@
       </c>
       <c r="V51" s="15"/>
       <c r="W51" s="15"/>
-      <c r="X51" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y51" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z51" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X51" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y51" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z51" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="15">
         <v>200</v>
       </c>
@@ -4969,17 +4800,17 @@
       </c>
       <c r="V52" s="15"/>
       <c r="W52" s="15"/>
-      <c r="X52" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y52" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z52" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X52" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y52" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z52" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="15">
         <v>200</v>
       </c>
@@ -5043,17 +4874,17 @@
       </c>
       <c r="V53" s="15"/>
       <c r="W53" s="15"/>
-      <c r="X53" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y53" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z53" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X53" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y53" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z53" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="15">
         <v>200</v>
       </c>
@@ -5117,17 +4948,17 @@
       </c>
       <c r="V54" s="15"/>
       <c r="W54" s="15"/>
-      <c r="X54" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y54" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z54" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X54" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y54" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z54" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="15">
         <v>200</v>
       </c>
@@ -5191,17 +5022,17 @@
       </c>
       <c r="V55" s="15"/>
       <c r="W55" s="15"/>
-      <c r="X55" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y55" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z55" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X55" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y55" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z55" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="15">
         <v>200</v>
       </c>
@@ -5265,17 +5096,17 @@
       </c>
       <c r="V56" s="15"/>
       <c r="W56" s="15"/>
-      <c r="X56" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y56" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z56" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X56" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y56" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z56" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="15">
         <v>200</v>
       </c>
@@ -5339,17 +5170,17 @@
       </c>
       <c r="V57" s="15"/>
       <c r="W57" s="15"/>
-      <c r="X57" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y57" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z57" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X57" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y57" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z57" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="15">
         <v>200</v>
       </c>
@@ -5413,17 +5244,17 @@
       </c>
       <c r="V58" s="15"/>
       <c r="W58" s="15"/>
-      <c r="X58" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y58" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z58" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X58" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y58" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z58" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B59" s="15">
         <v>200</v>
       </c>
@@ -5487,17 +5318,17 @@
       </c>
       <c r="V59" s="15"/>
       <c r="W59" s="15"/>
-      <c r="X59" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y59" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z59" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X59" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y59" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z59" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="15">
         <v>200</v>
       </c>
@@ -5561,17 +5392,17 @@
       </c>
       <c r="V60" s="15"/>
       <c r="W60" s="15"/>
-      <c r="X60" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y60" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z60" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X60" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y60" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z60" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="15">
         <v>240</v>
       </c>
@@ -5635,17 +5466,17 @@
       </c>
       <c r="V61" s="15"/>
       <c r="W61" s="15"/>
-      <c r="X61" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y61" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z61" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X61" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y61" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z61" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="15">
         <v>240</v>
       </c>
@@ -5709,17 +5540,17 @@
       </c>
       <c r="V62" s="15"/>
       <c r="W62" s="15"/>
-      <c r="X62" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y62" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z62" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X62" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y62" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z62" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="15">
         <v>240</v>
       </c>
@@ -5783,17 +5614,17 @@
       </c>
       <c r="V63" s="15"/>
       <c r="W63" s="15"/>
-      <c r="X63" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y63" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z63" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X63" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y63" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z63" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="15">
         <v>240</v>
       </c>
@@ -5857,17 +5688,17 @@
       </c>
       <c r="V64" s="15"/>
       <c r="W64" s="15"/>
-      <c r="X64" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y64" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z64" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X64" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y64" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z64" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="15">
         <v>240</v>
       </c>
@@ -5931,17 +5762,17 @@
       </c>
       <c r="V65" s="15"/>
       <c r="W65" s="15"/>
-      <c r="X65" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y65" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z65" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X65" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y65" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z65" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="15">
         <v>240</v>
       </c>
@@ -6005,17 +5836,17 @@
       </c>
       <c r="V66" s="15"/>
       <c r="W66" s="15"/>
-      <c r="X66" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y66" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z66" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X66" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y66" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z66" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="15">
         <v>240</v>
       </c>
@@ -6079,17 +5910,17 @@
       </c>
       <c r="V67" s="15"/>
       <c r="W67" s="15"/>
-      <c r="X67" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y67" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z67" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X67" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y67" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z67" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="15">
         <v>240</v>
       </c>
@@ -6153,17 +5984,17 @@
       </c>
       <c r="V68" s="15"/>
       <c r="W68" s="15"/>
-      <c r="X68" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y68" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z68" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X68" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y68" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z68" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B69" s="15">
         <v>240</v>
       </c>
@@ -6227,17 +6058,17 @@
       </c>
       <c r="V69" s="15"/>
       <c r="W69" s="15"/>
-      <c r="X69" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y69" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z69" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X69" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y69" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z69" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B70" s="15">
         <v>264</v>
       </c>
@@ -6301,17 +6132,17 @@
       </c>
       <c r="V70" s="15"/>
       <c r="W70" s="15"/>
-      <c r="X70" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y70" s="23">
+      <c r="X70" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y70" s="22">
         <v>200</v>
       </c>
-      <c r="Z70" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z70" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="15">
         <v>264</v>
       </c>
@@ -6375,17 +6206,17 @@
       </c>
       <c r="V71" s="15"/>
       <c r="W71" s="15"/>
-      <c r="X71" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y71" s="23">
+      <c r="X71" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y71" s="22">
         <v>200</v>
       </c>
-      <c r="Z71" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z71" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B72" s="15">
         <v>264</v>
       </c>
@@ -6449,17 +6280,17 @@
       </c>
       <c r="V72" s="15"/>
       <c r="W72" s="15"/>
-      <c r="X72" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y72" s="23">
+      <c r="X72" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y72" s="22">
         <v>200</v>
       </c>
-      <c r="Z72" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z72" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B73" s="15">
         <v>264</v>
       </c>
@@ -6523,17 +6354,17 @@
       </c>
       <c r="V73" s="15"/>
       <c r="W73" s="15"/>
-      <c r="X73" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y73" s="23">
+      <c r="X73" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y73" s="22">
         <v>200</v>
       </c>
-      <c r="Z73" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z73" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B74" s="15">
         <v>264</v>
       </c>
@@ -6597,17 +6428,17 @@
       </c>
       <c r="V74" s="15"/>
       <c r="W74" s="15"/>
-      <c r="X74" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y74" s="23">
+      <c r="X74" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y74" s="22">
         <v>200</v>
       </c>
-      <c r="Z74" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z74" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="15">
         <v>264</v>
       </c>
@@ -6671,17 +6502,17 @@
       </c>
       <c r="V75" s="15"/>
       <c r="W75" s="15"/>
-      <c r="X75" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y75" s="23">
+      <c r="X75" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y75" s="22">
         <v>200</v>
       </c>
-      <c r="Z75" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z75" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="15">
         <v>264</v>
       </c>
@@ -6745,17 +6576,17 @@
       </c>
       <c r="V76" s="15"/>
       <c r="W76" s="15"/>
-      <c r="X76" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y76" s="23">
+      <c r="X76" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y76" s="22">
         <v>200</v>
       </c>
-      <c r="Z76" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z76" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="15">
         <v>264</v>
       </c>
@@ -6819,17 +6650,17 @@
       </c>
       <c r="V77" s="15"/>
       <c r="W77" s="15"/>
-      <c r="X77" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y77" s="23">
+      <c r="X77" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y77" s="22">
         <v>200</v>
       </c>
-      <c r="Z77" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z77" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="15">
         <v>264</v>
       </c>
@@ -6893,17 +6724,17 @@
       </c>
       <c r="V78" s="15"/>
       <c r="W78" s="15"/>
-      <c r="X78" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y78" s="23">
+      <c r="X78" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y78" s="22">
         <v>200</v>
       </c>
-      <c r="Z78" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z78" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="15">
         <v>180</v>
       </c>
@@ -6967,17 +6798,17 @@
       </c>
       <c r="V79" s="15"/>
       <c r="W79" s="15"/>
-      <c r="X79" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y79" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z79" s="23">
+      <c r="X79" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y79" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z79" s="22">
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B80" s="15">
         <v>180</v>
       </c>
@@ -7041,17 +6872,17 @@
       </c>
       <c r="V80" s="15"/>
       <c r="W80" s="15"/>
-      <c r="X80" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y80" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z80" s="23">
+      <c r="X80" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y80" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z80" s="22">
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="15">
         <v>180</v>
       </c>
@@ -7115,17 +6946,17 @@
       </c>
       <c r="V81" s="15"/>
       <c r="W81" s="15"/>
-      <c r="X81" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y81" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z81" s="23">
+      <c r="X81" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y81" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z81" s="22">
         <v>-1</v>
       </c>
     </row>
-    <row r="82" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B82" s="15">
         <v>240</v>
       </c>
@@ -7189,17 +7020,17 @@
       </c>
       <c r="V82" s="15"/>
       <c r="W82" s="15"/>
-      <c r="X82" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y82" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z82" s="23">
+      <c r="X82" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y82" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z82" s="22">
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B83" s="15">
         <v>240</v>
       </c>
@@ -7263,17 +7094,17 @@
       </c>
       <c r="V83" s="15"/>
       <c r="W83" s="15"/>
-      <c r="X83" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y83" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z83" s="23">
+      <c r="X83" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y83" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z83" s="22">
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="15">
         <v>240</v>
       </c>
@@ -7337,17 +7168,17 @@
       </c>
       <c r="V84" s="15"/>
       <c r="W84" s="15"/>
-      <c r="X84" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y84" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z84" s="23">
+      <c r="X84" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y84" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z84" s="22">
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="15">
         <v>320</v>
       </c>
@@ -7411,17 +7242,17 @@
       </c>
       <c r="V85" s="15"/>
       <c r="W85" s="15"/>
-      <c r="X85" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y85" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z85" s="23">
+      <c r="X85" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y85" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z85" s="22">
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="15">
         <v>320</v>
       </c>
@@ -7485,17 +7316,17 @@
       </c>
       <c r="V86" s="15"/>
       <c r="W86" s="15"/>
-      <c r="X86" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y86" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z86" s="23">
+      <c r="X86" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y86" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z86" s="22">
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="15">
         <v>320</v>
       </c>
@@ -7559,17 +7390,17 @@
       </c>
       <c r="V87" s="15"/>
       <c r="W87" s="15"/>
-      <c r="X87" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y87" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z87" s="23">
+      <c r="X87" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y87" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z87" s="22">
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="15">
         <v>90</v>
       </c>
@@ -7629,17 +7460,17 @@
       </c>
       <c r="V88" s="15"/>
       <c r="W88" s="15"/>
-      <c r="X88" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y88" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z88" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X88" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y88" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z88" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B89" s="15">
         <v>90</v>
       </c>
@@ -7699,17 +7530,17 @@
       </c>
       <c r="V89" s="15"/>
       <c r="W89" s="15"/>
-      <c r="X89" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y89" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z89" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X89" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y89" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z89" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="15">
         <v>90</v>
       </c>
@@ -7769,17 +7600,17 @@
       </c>
       <c r="V90" s="15"/>
       <c r="W90" s="15"/>
-      <c r="X90" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y90" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z90" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X90" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y90" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z90" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="15">
         <v>90</v>
       </c>
@@ -7839,17 +7670,17 @@
       </c>
       <c r="V91" s="15"/>
       <c r="W91" s="15"/>
-      <c r="X91" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y91" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z91" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X91" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y91" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z91" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="15">
         <v>90</v>
       </c>
@@ -7909,17 +7740,17 @@
       </c>
       <c r="V92" s="15"/>
       <c r="W92" s="15"/>
-      <c r="X92" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y92" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z92" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X92" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y92" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z92" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="15">
         <v>90</v>
       </c>
@@ -7979,17 +7810,17 @@
       </c>
       <c r="V93" s="15"/>
       <c r="W93" s="15"/>
-      <c r="X93" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y93" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z93" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X93" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y93" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z93" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="15">
         <v>90</v>
       </c>
@@ -8049,17 +7880,17 @@
       </c>
       <c r="V94" s="15"/>
       <c r="W94" s="15"/>
-      <c r="X94" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y94" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z94" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X94" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y94" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z94" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="15">
         <v>90</v>
       </c>
@@ -8119,17 +7950,17 @@
       </c>
       <c r="V95" s="15"/>
       <c r="W95" s="15"/>
-      <c r="X95" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y95" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z95" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X95" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y95" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z95" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="15">
         <v>90</v>
       </c>
@@ -8189,17 +8020,17 @@
       </c>
       <c r="V96" s="15"/>
       <c r="W96" s="15"/>
-      <c r="X96" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y96" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z96" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X96" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y96" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z96" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="15">
         <v>100</v>
       </c>
@@ -8259,17 +8090,17 @@
       </c>
       <c r="V97" s="15"/>
       <c r="W97" s="15"/>
-      <c r="X97" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y97" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z97" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X97" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y97" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z97" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="15">
         <v>100</v>
       </c>
@@ -8329,17 +8160,17 @@
       </c>
       <c r="V98" s="15"/>
       <c r="W98" s="15"/>
-      <c r="X98" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y98" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z98" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X98" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y98" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z98" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B99" s="15">
         <v>100</v>
       </c>
@@ -8399,17 +8230,17 @@
       </c>
       <c r="V99" s="15"/>
       <c r="W99" s="15"/>
-      <c r="X99" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y99" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z99" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X99" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y99" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z99" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B100" s="15">
         <v>100</v>
       </c>
@@ -8469,17 +8300,17 @@
       </c>
       <c r="V100" s="15"/>
       <c r="W100" s="15"/>
-      <c r="X100" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y100" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z100" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X100" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y100" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="15">
         <v>100</v>
       </c>
@@ -8539,17 +8370,17 @@
       </c>
       <c r="V101" s="15"/>
       <c r="W101" s="15"/>
-      <c r="X101" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y101" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z101" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X101" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y101" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z101" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="15">
         <v>100</v>
       </c>
@@ -8609,17 +8440,17 @@
       </c>
       <c r="V102" s="15"/>
       <c r="W102" s="15"/>
-      <c r="X102" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y102" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z102" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X102" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y102" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z102" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="15">
         <v>100</v>
       </c>
@@ -8679,17 +8510,17 @@
       </c>
       <c r="V103" s="15"/>
       <c r="W103" s="15"/>
-      <c r="X103" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y103" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z103" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X103" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y103" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z103" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="15">
         <v>100</v>
       </c>
@@ -8749,17 +8580,17 @@
       </c>
       <c r="V104" s="15"/>
       <c r="W104" s="15"/>
-      <c r="X104" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y104" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z104" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X104" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y104" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z104" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="15">
         <v>100</v>
       </c>
@@ -8819,17 +8650,17 @@
       </c>
       <c r="V105" s="15"/>
       <c r="W105" s="15"/>
-      <c r="X105" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y105" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z105" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X105" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y105" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z105" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="15">
         <v>127</v>
       </c>
@@ -8889,17 +8720,17 @@
       </c>
       <c r="V106" s="15"/>
       <c r="W106" s="15"/>
-      <c r="X106" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y106" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z106" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X106" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y106" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z106" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="15">
         <v>127</v>
       </c>
@@ -8959,17 +8790,17 @@
       </c>
       <c r="V107" s="15"/>
       <c r="W107" s="15"/>
-      <c r="X107" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y107" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z107" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X107" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y107" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z107" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B108" s="15">
         <v>127</v>
       </c>
@@ -9029,17 +8860,17 @@
       </c>
       <c r="V108" s="15"/>
       <c r="W108" s="15"/>
-      <c r="X108" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y108" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z108" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X108" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y108" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z108" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B109" s="15">
         <v>127</v>
       </c>
@@ -9099,17 +8930,17 @@
       </c>
       <c r="V109" s="15"/>
       <c r="W109" s="15"/>
-      <c r="X109" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y109" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z109" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X109" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y109" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z109" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B110" s="15">
         <v>127</v>
       </c>
@@ -9169,17 +9000,17 @@
       </c>
       <c r="V110" s="15"/>
       <c r="W110" s="15"/>
-      <c r="X110" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y110" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z110" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X110" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y110" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z110" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B111" s="15">
         <v>127</v>
       </c>
@@ -9239,17 +9070,17 @@
       </c>
       <c r="V111" s="15"/>
       <c r="W111" s="15"/>
-      <c r="X111" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y111" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z111" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X111" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y111" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z111" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B112" s="15">
         <v>127</v>
       </c>
@@ -9309,17 +9140,17 @@
       </c>
       <c r="V112" s="15"/>
       <c r="W112" s="15"/>
-      <c r="X112" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y112" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z112" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X112" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y112" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z112" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="15">
         <v>127</v>
       </c>
@@ -9379,17 +9210,17 @@
       </c>
       <c r="V113" s="15"/>
       <c r="W113" s="15"/>
-      <c r="X113" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y113" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z113" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X113" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y113" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z113" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="15">
         <v>127</v>
       </c>
@@ -9449,17 +9280,17 @@
       </c>
       <c r="V114" s="15"/>
       <c r="W114" s="15"/>
-      <c r="X114" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y114" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z114" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X114" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y114" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z114" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B115" s="15">
         <v>140</v>
       </c>
@@ -9519,17 +9350,17 @@
       </c>
       <c r="V115" s="15"/>
       <c r="W115" s="15"/>
-      <c r="X115" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y115" s="23">
+      <c r="X115" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y115" s="22">
         <v>200</v>
       </c>
-      <c r="Z115" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z115" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B116" s="15">
         <v>140</v>
       </c>
@@ -9589,17 +9420,17 @@
       </c>
       <c r="V116" s="15"/>
       <c r="W116" s="15"/>
-      <c r="X116" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y116" s="23">
+      <c r="X116" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y116" s="22">
         <v>200</v>
       </c>
-      <c r="Z116" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z116" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B117" s="15">
         <v>140</v>
       </c>
@@ -9659,17 +9490,17 @@
       </c>
       <c r="V117" s="15"/>
       <c r="W117" s="15"/>
-      <c r="X117" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y117" s="23">
+      <c r="X117" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y117" s="22">
         <v>200</v>
       </c>
-      <c r="Z117" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z117" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B118" s="15">
         <v>140</v>
       </c>
@@ -9729,17 +9560,17 @@
       </c>
       <c r="V118" s="15"/>
       <c r="W118" s="15"/>
-      <c r="X118" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y118" s="23">
+      <c r="X118" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y118" s="22">
         <v>200</v>
       </c>
-      <c r="Z118" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z118" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B119" s="15">
         <v>140</v>
       </c>
@@ -9799,17 +9630,17 @@
       </c>
       <c r="V119" s="15"/>
       <c r="W119" s="15"/>
-      <c r="X119" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y119" s="23">
+      <c r="X119" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y119" s="22">
         <v>200</v>
       </c>
-      <c r="Z119" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z119" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="15">
         <v>140</v>
       </c>
@@ -9869,17 +9700,17 @@
       </c>
       <c r="V120" s="15"/>
       <c r="W120" s="15"/>
-      <c r="X120" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y120" s="23">
+      <c r="X120" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y120" s="22">
         <v>200</v>
       </c>
-      <c r="Z120" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z120" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="15">
         <v>140</v>
       </c>
@@ -9939,17 +9770,17 @@
       </c>
       <c r="V121" s="15"/>
       <c r="W121" s="15"/>
-      <c r="X121" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y121" s="23">
+      <c r="X121" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y121" s="22">
         <v>200</v>
       </c>
-      <c r="Z121" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z121" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="15">
         <v>140</v>
       </c>
@@ -10009,17 +9840,17 @@
       </c>
       <c r="V122" s="15"/>
       <c r="W122" s="15"/>
-      <c r="X122" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y122" s="23">
+      <c r="X122" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y122" s="22">
         <v>200</v>
       </c>
-      <c r="Z122" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z122" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="15">
         <v>140</v>
       </c>
@@ -10079,17 +9910,17 @@
       </c>
       <c r="V123" s="15"/>
       <c r="W123" s="15"/>
-      <c r="X123" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y123" s="23">
+      <c r="X123" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y123" s="22">
         <v>200</v>
       </c>
-      <c r="Z123" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z123" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="15">
         <v>180</v>
       </c>
@@ -10149,17 +9980,17 @@
       </c>
       <c r="V124" s="15"/>
       <c r="W124" s="15"/>
-      <c r="X124" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y124" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z124" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X124" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y124" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z124" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="15">
         <v>180</v>
       </c>
@@ -10219,17 +10050,17 @@
       </c>
       <c r="V125" s="15"/>
       <c r="W125" s="15"/>
-      <c r="X125" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y125" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z125" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X125" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y125" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z125" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="15">
         <v>180</v>
       </c>
@@ -10289,17 +10120,17 @@
       </c>
       <c r="V126" s="15"/>
       <c r="W126" s="15"/>
-      <c r="X126" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y126" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z126" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X126" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y126" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z126" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="15">
         <v>180</v>
       </c>
@@ -10359,17 +10190,17 @@
       </c>
       <c r="V127" s="15"/>
       <c r="W127" s="15"/>
-      <c r="X127" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y127" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z127" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X127" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y127" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z127" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="15">
         <v>180</v>
       </c>
@@ -10429,17 +10260,17 @@
       </c>
       <c r="V128" s="15"/>
       <c r="W128" s="15"/>
-      <c r="X128" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y128" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z128" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X128" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y128" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z128" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="15">
         <v>180</v>
       </c>
@@ -10499,17 +10330,17 @@
       </c>
       <c r="V129" s="15"/>
       <c r="W129" s="15"/>
-      <c r="X129" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y129" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z129" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X129" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y129" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z129" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="15">
         <v>180</v>
       </c>
@@ -10569,17 +10400,17 @@
       </c>
       <c r="V130" s="15"/>
       <c r="W130" s="15"/>
-      <c r="X130" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y130" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z130" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X130" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y130" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z130" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="15">
         <v>180</v>
       </c>
@@ -10639,17 +10470,17 @@
       </c>
       <c r="V131" s="15"/>
       <c r="W131" s="15"/>
-      <c r="X131" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y131" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z131" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X131" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y131" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z131" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="15">
         <v>180</v>
       </c>
@@ -10709,17 +10540,17 @@
       </c>
       <c r="V132" s="15"/>
       <c r="W132" s="15"/>
-      <c r="X132" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y132" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z132" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X132" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y132" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z132" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B133" s="15">
         <v>200</v>
       </c>
@@ -10779,17 +10610,17 @@
       </c>
       <c r="V133" s="15"/>
       <c r="W133" s="15"/>
-      <c r="X133" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y133" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z133" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X133" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y133" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z133" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="15">
         <v>200</v>
       </c>
@@ -10849,17 +10680,17 @@
       </c>
       <c r="V134" s="15"/>
       <c r="W134" s="15"/>
-      <c r="X134" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y134" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z134" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X134" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y134" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z134" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="15">
         <v>200</v>
       </c>
@@ -10919,17 +10750,17 @@
       </c>
       <c r="V135" s="15"/>
       <c r="W135" s="15"/>
-      <c r="X135" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y135" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z135" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X135" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y135" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z135" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="15">
         <v>200</v>
       </c>
@@ -10989,17 +10820,17 @@
       </c>
       <c r="V136" s="15"/>
       <c r="W136" s="15"/>
-      <c r="X136" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y136" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z136" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X136" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y136" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z136" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="15">
         <v>200</v>
       </c>
@@ -11059,17 +10890,17 @@
       </c>
       <c r="V137" s="15"/>
       <c r="W137" s="15"/>
-      <c r="X137" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y137" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z137" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X137" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y137" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z137" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B138" s="15">
         <v>200</v>
       </c>
@@ -11129,17 +10960,17 @@
       </c>
       <c r="V138" s="15"/>
       <c r="W138" s="15"/>
-      <c r="X138" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y138" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z138" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X138" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y138" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z138" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B139" s="15">
         <v>200</v>
       </c>
@@ -11199,17 +11030,17 @@
       </c>
       <c r="V139" s="15"/>
       <c r="W139" s="15"/>
-      <c r="X139" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y139" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z139" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X139" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y139" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z139" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B140" s="15">
         <v>200</v>
       </c>
@@ -11269,17 +11100,17 @@
       </c>
       <c r="V140" s="15"/>
       <c r="W140" s="15"/>
-      <c r="X140" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y140" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z140" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X140" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y140" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z140" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B141" s="15">
         <v>200</v>
       </c>
@@ -11339,17 +11170,17 @@
       </c>
       <c r="V141" s="15"/>
       <c r="W141" s="15"/>
-      <c r="X141" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y141" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z141" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X141" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y141" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z141" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B142" s="15">
         <v>240</v>
       </c>
@@ -11409,17 +11240,17 @@
       </c>
       <c r="V142" s="15"/>
       <c r="W142" s="15"/>
-      <c r="X142" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y142" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z142" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X142" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y142" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z142" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="15">
         <v>240</v>
       </c>
@@ -11479,17 +11310,17 @@
       </c>
       <c r="V143" s="15"/>
       <c r="W143" s="15"/>
-      <c r="X143" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y143" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z143" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X143" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y143" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z143" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B144" s="15">
         <v>240</v>
       </c>
@@ -11549,17 +11380,17 @@
       </c>
       <c r="V144" s="15"/>
       <c r="W144" s="15"/>
-      <c r="X144" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y144" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z144" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X144" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y144" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z144" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B145" s="15">
         <v>240</v>
       </c>
@@ -11619,17 +11450,17 @@
       </c>
       <c r="V145" s="15"/>
       <c r="W145" s="15"/>
-      <c r="X145" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y145" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z145" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X145" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y145" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z145" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B146" s="15">
         <v>240</v>
       </c>
@@ -11689,17 +11520,17 @@
       </c>
       <c r="V146" s="15"/>
       <c r="W146" s="15"/>
-      <c r="X146" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y146" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z146" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X146" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y146" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z146" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B147" s="15">
         <v>240</v>
       </c>
@@ -11759,17 +11590,17 @@
       </c>
       <c r="V147" s="15"/>
       <c r="W147" s="15"/>
-      <c r="X147" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y147" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z147" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X147" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y147" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z147" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B148" s="15">
         <v>240</v>
       </c>
@@ -11829,17 +11660,17 @@
       </c>
       <c r="V148" s="15"/>
       <c r="W148" s="15"/>
-      <c r="X148" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y148" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z148" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X148" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y148" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z148" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B149" s="15">
         <v>240</v>
       </c>
@@ -11899,17 +11730,17 @@
       </c>
       <c r="V149" s="15"/>
       <c r="W149" s="15"/>
-      <c r="X149" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y149" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z149" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X149" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y149" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z149" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="15">
         <v>240</v>
       </c>
@@ -11969,17 +11800,17 @@
       </c>
       <c r="V150" s="15"/>
       <c r="W150" s="15"/>
-      <c r="X150" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y150" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z150" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X150" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y150" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z150" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B151" s="15">
         <v>264</v>
       </c>
@@ -12039,17 +11870,17 @@
       </c>
       <c r="V151" s="15"/>
       <c r="W151" s="15"/>
-      <c r="X151" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y151" s="23">
+      <c r="X151" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y151" s="22">
         <v>200</v>
       </c>
-      <c r="Z151" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z151" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B152" s="15">
         <v>264</v>
       </c>
@@ -12109,17 +11940,17 @@
       </c>
       <c r="V152" s="15"/>
       <c r="W152" s="15"/>
-      <c r="X152" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y152" s="23">
+      <c r="X152" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y152" s="22">
         <v>200</v>
       </c>
-      <c r="Z152" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z152" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B153" s="15">
         <v>264</v>
       </c>
@@ -12179,17 +12010,17 @@
       </c>
       <c r="V153" s="15"/>
       <c r="W153" s="15"/>
-      <c r="X153" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y153" s="23">
+      <c r="X153" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y153" s="22">
         <v>200</v>
       </c>
-      <c r="Z153" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z153" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B154" s="15">
         <v>264</v>
       </c>
@@ -12249,17 +12080,17 @@
       </c>
       <c r="V154" s="15"/>
       <c r="W154" s="15"/>
-      <c r="X154" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y154" s="23">
+      <c r="X154" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y154" s="22">
         <v>200</v>
       </c>
-      <c r="Z154" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z154" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B155" s="15">
         <v>264</v>
       </c>
@@ -12319,17 +12150,17 @@
       </c>
       <c r="V155" s="15"/>
       <c r="W155" s="15"/>
-      <c r="X155" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y155" s="23">
+      <c r="X155" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y155" s="22">
         <v>200</v>
       </c>
-      <c r="Z155" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z155" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="15">
         <v>264</v>
       </c>
@@ -12389,17 +12220,17 @@
       </c>
       <c r="V156" s="15"/>
       <c r="W156" s="15"/>
-      <c r="X156" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y156" s="23">
+      <c r="X156" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y156" s="22">
         <v>200</v>
       </c>
-      <c r="Z156" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z156" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B157" s="15">
         <v>264</v>
       </c>
@@ -12459,17 +12290,17 @@
       </c>
       <c r="V157" s="15"/>
       <c r="W157" s="15"/>
-      <c r="X157" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y157" s="23">
+      <c r="X157" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y157" s="22">
         <v>200</v>
       </c>
-      <c r="Z157" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z157" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" s="15">
         <v>264</v>
       </c>
@@ -12529,17 +12360,17 @@
       </c>
       <c r="V158" s="15"/>
       <c r="W158" s="15"/>
-      <c r="X158" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y158" s="23">
+      <c r="X158" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y158" s="22">
         <v>200</v>
       </c>
-      <c r="Z158" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z158" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B159" s="15">
         <v>264</v>
       </c>
@@ -12599,17 +12430,17 @@
       </c>
       <c r="V159" s="15"/>
       <c r="W159" s="15"/>
-      <c r="X159" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y159" s="23">
+      <c r="X159" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y159" s="22">
         <v>200</v>
       </c>
-      <c r="Z159" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z159" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B160" s="15">
         <v>180</v>
       </c>
@@ -12669,17 +12500,17 @@
       </c>
       <c r="V160" s="15"/>
       <c r="W160" s="15"/>
-      <c r="X160" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y160" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z160" s="23">
+      <c r="X160" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y160" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z160" s="22">
         <v>-1</v>
       </c>
     </row>
-    <row r="161" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B161" s="15">
         <v>180</v>
       </c>
@@ -12739,17 +12570,17 @@
       </c>
       <c r="V161" s="15"/>
       <c r="W161" s="15"/>
-      <c r="X161" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y161" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z161" s="23">
+      <c r="X161" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y161" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z161" s="22">
         <v>-1</v>
       </c>
     </row>
-    <row r="162" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B162" s="15">
         <v>180</v>
       </c>
@@ -12809,17 +12640,17 @@
       </c>
       <c r="V162" s="15"/>
       <c r="W162" s="15"/>
-      <c r="X162" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y162" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z162" s="23">
+      <c r="X162" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y162" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z162" s="22">
         <v>-1</v>
       </c>
     </row>
-    <row r="163" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B163" s="15">
         <v>240</v>
       </c>
@@ -12879,17 +12710,17 @@
       </c>
       <c r="V163" s="15"/>
       <c r="W163" s="15"/>
-      <c r="X163" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y163" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z163" s="23">
+      <c r="X163" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y163" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z163" s="22">
         <v>-1</v>
       </c>
     </row>
-    <row r="164" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B164" s="15">
         <v>240</v>
       </c>
@@ -12949,17 +12780,17 @@
       </c>
       <c r="V164" s="15"/>
       <c r="W164" s="15"/>
-      <c r="X164" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y164" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z164" s="23">
+      <c r="X164" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y164" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z164" s="22">
         <v>-1</v>
       </c>
     </row>
-    <row r="165" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B165" s="15">
         <v>240</v>
       </c>
@@ -13019,17 +12850,17 @@
       </c>
       <c r="V165" s="15"/>
       <c r="W165" s="15"/>
-      <c r="X165" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y165" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z165" s="23">
+      <c r="X165" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y165" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z165" s="22">
         <v>-1</v>
       </c>
     </row>
-    <row r="166" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B166" s="15">
         <v>320</v>
       </c>
@@ -13089,17 +12920,17 @@
       </c>
       <c r="V166" s="15"/>
       <c r="W166" s="15"/>
-      <c r="X166" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y166" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z166" s="23">
+      <c r="X166" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y166" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z166" s="22">
         <v>-1</v>
       </c>
     </row>
-    <row r="167" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B167" s="15">
         <v>320</v>
       </c>
@@ -13159,17 +12990,17 @@
       </c>
       <c r="V167" s="15"/>
       <c r="W167" s="15"/>
-      <c r="X167" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y167" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z167" s="23">
+      <c r="X167" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y167" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z167" s="22">
         <v>-1</v>
       </c>
     </row>
-    <row r="168" spans="2:26" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:26" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B168" s="15">
         <v>320</v>
       </c>
@@ -13229,13 +13060,13 @@
       </c>
       <c r="V168" s="15"/>
       <c r="W168" s="15"/>
-      <c r="X168" s="23">
-        <v>0.04</v>
-      </c>
-      <c r="Y168" s="23">
-        <v>100</v>
-      </c>
-      <c r="Z168" s="23">
+      <c r="X168" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="Y168" s="22">
+        <v>100</v>
+      </c>
+      <c r="Z168" s="22">
         <v>-1</v>
       </c>
     </row>
@@ -13281,26 +13112,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="1" t="s">
         <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -13319,7 +13150,7 @@
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
+      <c r="A3" s="35"/>
       <c r="B3" s="3" t="s">
         <v>64</v>
       </c>
@@ -13336,7 +13167,7 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="3" t="s">
         <v>65</v>
       </c>
@@ -13353,7 +13184,7 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="35"/>
       <c r="B5" s="3" t="s">
         <v>66</v>
       </c>
@@ -13370,7 +13201,7 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="3" t="s">
         <v>67</v>
       </c>
@@ -13387,7 +13218,7 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="3" t="s">
         <v>68</v>
       </c>
@@ -13404,7 +13235,7 @@
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="35"/>
       <c r="B8" s="3" t="s">
         <v>69</v>
       </c>
@@ -13421,7 +13252,7 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="35"/>
       <c r="B9" s="3" t="s">
         <v>70</v>
       </c>
@@ -13438,7 +13269,7 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
@@ -13455,7 +13286,7 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="35"/>
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
@@ -13472,7 +13303,7 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="35" t="s">
         <v>71</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -13503,7 +13334,7 @@
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="3" t="s">
         <v>63</v>
       </c>
@@ -13532,7 +13363,7 @@
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="3" t="s">
         <v>72</v>
       </c>
@@ -13559,7 +13390,7 @@
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -13588,7 +13419,7 @@
       <c r="M15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
@@ -13617,7 +13448,7 @@
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="35" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -13644,7 +13475,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+      <c r="A18" s="35"/>
       <c r="B18" s="3" t="s">
         <v>59</v>
       </c>
@@ -13657,7 +13488,7 @@
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
+      <c r="A19" s="35"/>
       <c r="B19" s="3" t="s">
         <v>74</v>
       </c>
@@ -13682,7 +13513,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="3" t="s">
         <v>75</v>
       </c>
@@ -13697,7 +13528,7 @@
       <c r="I20" s="5"/>
     </row>
     <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="3" t="s">
         <v>77</v>
       </c>
@@ -13712,7 +13543,7 @@
       <c r="I21" s="5"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="3" t="s">
         <v>66</v>
       </c>
@@ -13739,7 +13570,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
+      <c r="A23" s="35"/>
       <c r="B23" s="3" t="s">
         <v>80</v>
       </c>
@@ -13754,7 +13585,7 @@
       <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+      <c r="A24" s="35"/>
       <c r="B24" s="3" t="s">
         <v>81</v>
       </c>
@@ -13781,7 +13612,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+      <c r="A25" s="35"/>
       <c r="B25" s="3" t="s">
         <v>83</v>
       </c>
@@ -13794,7 +13625,7 @@
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+      <c r="A26" s="35"/>
       <c r="B26" s="3" t="s">
         <v>84</v>
       </c>
@@ -13821,7 +13652,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
+      <c r="A27" s="35"/>
       <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
@@ -13834,7 +13665,7 @@
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="35" t="s">
         <v>86</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -13853,7 +13684,7 @@
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="3" t="s">
         <v>88</v>
       </c>
@@ -13870,7 +13701,7 @@
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="3" t="s">
         <v>90</v>
       </c>
@@ -13887,7 +13718,7 @@
       <c r="K30" s="4"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="3" t="s">
         <v>92</v>
       </c>
